--- a/biology/Médecine/Délire_paranoïde/Délire_paranoïde.xlsx
+++ b/biology/Médecine/Délire_paranoïde/Délire_paranoïde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9lire_parano%C3%AFde</t>
+          <t>Délire_paranoïde</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En psychiatrie, on appelle délire paranoïde un syndrome délirant (une perte de contact avec la réalité partagée par d'autres) caractéristique de la schizophrénie.
 Malgré la proximité entre les deux termes, il faut bien le distinguer du délire paranoïaque, caractéristique du groupe des paranoïas et présentant une sémiologie bien différente.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9lire_parano%C3%AFde</t>
+          <t>Délire_paranoïde</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Sémiologie structurale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le délire paranoïde :
 est construit à partir de mécanismes multiples (hallucination, illusion, interprétation, intuition, imagination) ;
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>D%C3%A9lire_parano%C3%AFde</t>
+          <t>Délire_paranoïde</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,6 +560,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -553,7 +569,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>D%C3%A9lire_parano%C3%AFde</t>
+          <t>Délire_paranoïde</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -571,7 +587,9 @@
           <t>Nosologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le délire paranoïde se retrouve essentiellement au cours des schizophrénies, dont il constitue l'un des symptômes. On parle de schizophrénie paranoïde pour les formes très délirantes. D'autres symptômes sont alors associés.
 On le retrouve également au cours de bouffée délirante aiguë et de la psychose puerpérale.
